--- a/weather mapping.xlsx
+++ b/weather mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28422"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48EA75FC-60AD-44EC-A22F-ECB4AFD64AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3E8EDD-06E7-437D-89C8-170116032A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weather_code" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -124,7 +124,13 @@
     <t>Thunderstorm: Violent with hail</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Night</t>
@@ -702,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -955,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E8D0BD-056B-4AE6-AECF-03F81984DE97}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,19 +976,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9">
-        <v>0</v>
+      <c r="A2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9">
-        <v>1</v>
+      <c r="A3" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/weather mapping.xlsx
+++ b/weather mapping.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28422"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3E8EDD-06E7-437D-89C8-170116032A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B06949C-4A95-4777-BA17-6857D20EB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weather_code" sheetId="1" r:id="rId1"/>
     <sheet name="times_of_day" sheetId="2" r:id="rId2"/>
+    <sheet name="location" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -134,13 +135,25 @@
   </si>
   <si>
     <t>Night</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>vn.hcm</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +165,12 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -260,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -271,6 +290,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E8D0BD-056B-4AE6-AECF-03F81984DE97}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -994,4 +1015,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7693FB31-F4AE-49F5-8615-7773401269B1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11">
+        <v>10.8231</v>
+      </c>
+      <c r="C2" s="11">
+        <v>106.6297</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>